--- a/[H] Requirements Elicitation/Analysis/Codes nav_behavior_1-5 Comparisons.xlsx
+++ b/[H] Requirements Elicitation/Analysis/Codes nav_behavior_1-5 Comparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lucasjohnston.sharepoint.com/sites/Personal/Gedeelde documenten/Studie/[15] Master Thesis/[H] Requirements Elicitation/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="975" documentId="8_{0E91EF87-D3F1-4CF4-B918-3E43661BECA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{917EF076-9A33-4D8C-B1AA-942E9F49F5D0}"/>
+  <xr:revisionPtr revIDLastSave="1067" documentId="8_{0E91EF87-D3F1-4CF4-B918-3E43661BECA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6EDE720-EAD3-4783-B0CD-C9132D45C776}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="691" xr2:uid="{A2D2436F-6D82-4857-960A-E615779F51BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="691" activeTab="2" xr2:uid="{A2D2436F-6D82-4857-960A-E615779F51BD}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="6" r:id="rId1"/>
@@ -322,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -359,7 +359,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -371,22 +370,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color theme="2"/>
@@ -394,6 +382,13 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -447,7 +442,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -504,22 +501,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Decision making (f=16)</c:v>
+                  <c:v>Decision making w(f)=13,2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Lane position (f=12)</c:v>
+                  <c:v>Speed control w(f)=10,4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Speed control (f=13)</c:v>
+                  <c:v>Lane position w(f)=7,9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Response time (f=10)</c:v>
+                  <c:v>Response time w(f)=7,1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distance (f=4)</c:v>
+                  <c:v>Distance w(f)=4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Near collision (f=1)</c:v>
+                  <c:v>Near collision w(f)=1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -531,19 +528,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.17391304347826086</c:v>
+                  <c:v>1.8181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30434782608695654</c:v>
+                  <c:v>1.8181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17391304347826086</c:v>
+                  <c:v>3.1818181818181821</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21739130434782608</c:v>
+                  <c:v>2.2727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13043478260869565</c:v>
+                  <c:v>1.3636363636363638</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -573,7 +570,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -645,22 +644,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Decision making (f=16)</c:v>
+                  <c:v>Decision making w(f)=13,2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Lane position (f=12)</c:v>
+                  <c:v>Speed control w(f)=10,4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Speed control (f=13)</c:v>
+                  <c:v>Lane position w(f)=7,9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Response time (f=10)</c:v>
+                  <c:v>Response time w(f)=7,1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distance (f=4)</c:v>
+                  <c:v>Distance w(f)=4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Near collision (f=1)</c:v>
+                  <c:v>Near collision w(f)=1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -672,22 +671,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16</c:v>
+                  <c:v>6.5625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12</c:v>
+                  <c:v>2.8125</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                  <c:v>0.45454545454545459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -714,7 +713,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -772,22 +773,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Decision making (f=16)</c:v>
+                  <c:v>Decision making w(f)=13,2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Lane position (f=12)</c:v>
+                  <c:v>Speed control w(f)=10,4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Speed control (f=13)</c:v>
+                  <c:v>Lane position w(f)=7,9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Response time (f=10)</c:v>
+                  <c:v>Response time w(f)=7,1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distance (f=4)</c:v>
+                  <c:v>Distance w(f)=4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Near collision (f=1)</c:v>
+                  <c:v>Near collision w(f)=1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -799,19 +800,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.125</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.125</c:v>
+                  <c:v>0.45454545454545459</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1544,16 +1545,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1724024</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1417320</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>320039</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1576,6 +1577,50 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>346296</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>118247</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Afbeelding 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5577C8B-5884-9102-9D7F-56F0283AADAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9334500" y="365760"/>
+          <a:ext cx="4011516" cy="1585097"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1881,30 +1926,31 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="A3:Q3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>54</v>
       </c>
@@ -1957,7 +2003,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -1968,7 +2014,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="17">
-        <v>0.17391304347826086</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="E2" s="17">
         <f>C2/33*sample_size_weighting_factor</f>
@@ -1981,8 +2027,8 @@
         <v>0.4</v>
       </c>
       <c r="H2" s="17">
-        <f>F2/33*sample_size_weighting_factor</f>
-        <v>4.5454545454545459</v>
+        <f>F2/16*sample_size_weighting_factor</f>
+        <v>9.375</v>
       </c>
       <c r="I2" s="17">
         <v>2</v>
@@ -1991,159 +2037,159 @@
         <v>0.25</v>
       </c>
       <c r="K2" s="17">
-        <f>I2/33*sample_size_weighting_factor</f>
-        <v>0.90909090909090917</v>
+        <f>I2/15*sample_size_weighting_factor</f>
+        <v>2</v>
       </c>
       <c r="L2" s="17">
-        <f>IF(D2-G2&lt;0,(D2-G2)*-1,D2-G2)</f>
-        <v>0.22608695652173916</v>
+        <f>IF(E2-H2&lt;0,(E2-H2)*-1,E2-H2)</f>
+        <v>7.5568181818181817</v>
       </c>
       <c r="M2" s="17">
-        <f>IF(D2-J2&lt;0,(D2-J2)*-1,D2-J2)</f>
-        <v>7.6086956521739135E-2</v>
+        <f>IF(E2-K2&lt;0,(E2-K2)*-1,E2-K2)</f>
+        <v>0.18181818181818166</v>
       </c>
       <c r="N2" s="17">
-        <f>IF(G2-J2&lt;0,(G2-J2)*-1,G2-J2)</f>
-        <v>0.15000000000000002</v>
+        <f>IF(H2-K2&lt;0,(H2-K2)*-1,H2-K2)</f>
+        <v>7.375</v>
       </c>
       <c r="O2" s="18">
-        <f>C2+F2+I2</f>
-        <v>16</v>
+        <f>E2+H2+K2</f>
+        <v>13.193181818181818</v>
       </c>
       <c r="P2" s="17">
         <f>L2+M2+N2</f>
-        <v>0.45217391304347831</v>
+        <v>15.113636363636363</v>
       </c>
       <c r="Q2" s="17">
         <f>P2*O2^2</f>
-        <v>115.75652173913045</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2630.680248051277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="17">
-        <v>0.30434782608695654</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="E3" s="17">
         <f>C3/33*sample_size_weighting_factor</f>
-        <v>3.1818181818181821</v>
+        <v>1.8181818181818183</v>
       </c>
       <c r="F3" s="17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="17">
-        <v>0.16</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H3" s="17">
-        <f>F3/33*sample_size_weighting_factor</f>
-        <v>1.8181818181818183</v>
+        <f>F3/16*sample_size_weighting_factor</f>
+        <v>6.5625</v>
       </c>
       <c r="I3" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="17">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="K3" s="17">
-        <f>I3/33*sample_size_weighting_factor</f>
-        <v>0.45454545454545459</v>
+        <f>I3/15*sample_size_weighting_factor</f>
+        <v>2</v>
       </c>
       <c r="L3" s="17">
-        <f>IF(D3-G3&lt;0,(D3-G3)*-1,D3-G3)</f>
-        <v>0.14434782608695654</v>
+        <f t="shared" ref="L3:L5" si="0">IF(E3-H3&lt;0,(E3-H3)*-1,E3-H3)</f>
+        <v>4.7443181818181817</v>
       </c>
       <c r="M3" s="17">
-        <f>IF(D3-J3&lt;0,(D3-J3)*-1,D3-J3)</f>
-        <v>0.17934782608695654</v>
+        <f t="shared" ref="M3:M5" si="1">IF(E3-K3&lt;0,(E3-K3)*-1,E3-K3)</f>
+        <v>0.18181818181818166</v>
       </c>
       <c r="N3" s="17">
-        <f>IF(G3-J3&lt;0,(G3-J3)*-1,G3-J3)</f>
-        <v>3.5000000000000003E-2</v>
+        <f t="shared" ref="N3:N5" si="2">IF(H3-K3&lt;0,(H3-K3)*-1,H3-K3)</f>
+        <v>4.5625</v>
       </c>
       <c r="O3" s="18">
-        <f>C3+F3+I3</f>
-        <v>12</v>
+        <f>E3+H3+K3</f>
+        <v>10.380681818181818</v>
       </c>
       <c r="P3" s="17">
         <f>L3+M3+N3</f>
-        <v>0.35869565217391308</v>
+        <v>9.4886363636363633</v>
       </c>
       <c r="Q3" s="17">
         <f>P3*O3^2</f>
-        <v>51.652173913043484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1022.4817435639322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" s="17">
-        <v>0.17391304347826086</v>
+        <v>0.30434782608695654</v>
       </c>
       <c r="E4" s="17">
         <f>C4/33*sample_size_weighting_factor</f>
-        <v>1.8181818181818183</v>
+        <v>3.1818181818181821</v>
       </c>
       <c r="F4" s="17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G4" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.16</v>
       </c>
       <c r="H4" s="17">
-        <f>F4/33*sample_size_weighting_factor</f>
-        <v>3.1818181818181821</v>
+        <f>F4/16*sample_size_weighting_factor</f>
+        <v>3.75</v>
       </c>
       <c r="I4" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="17">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="K4" s="17">
-        <f>I4/33*sample_size_weighting_factor</f>
-        <v>0.90909090909090917</v>
+        <f>I4/15*sample_size_weighting_factor</f>
+        <v>1</v>
       </c>
       <c r="L4" s="17">
-        <f>IF(D4-G4&lt;0,(D4-G4)*-1,D4-G4)</f>
-        <v>0.10608695652173916</v>
+        <f t="shared" si="0"/>
+        <v>0.5681818181818179</v>
       </c>
       <c r="M4" s="17">
-        <f>IF(D4-J4&lt;0,(D4-J4)*-1,D4-J4)</f>
-        <v>7.6086956521739135E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.1818181818181821</v>
       </c>
       <c r="N4" s="17">
-        <f>IF(G4-J4&lt;0,(G4-J4)*-1,G4-J4)</f>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.75</v>
       </c>
       <c r="O4" s="18">
-        <f>C4+F4+I4</f>
-        <v>13</v>
+        <f>E4+H4+K4</f>
+        <v>7.9318181818181817</v>
       </c>
       <c r="P4" s="17">
         <f>L4+M4+N4</f>
-        <v>0.21217391304347832</v>
+        <v>5.5</v>
       </c>
       <c r="Q4" s="17">
         <f>P4*O4^2</f>
-        <v>35.857391304347836</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>346.02556818181819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -2167,8 +2213,8 @@
         <v>0.12</v>
       </c>
       <c r="H5" s="17">
-        <f>F5/33*sample_size_weighting_factor</f>
-        <v>1.3636363636363638</v>
+        <f>F5/16*sample_size_weighting_factor</f>
+        <v>2.8125</v>
       </c>
       <c r="I5" s="17">
         <v>2</v>
@@ -2177,35 +2223,35 @@
         <v>0.25</v>
       </c>
       <c r="K5" s="17">
-        <f>I5/33*sample_size_weighting_factor</f>
-        <v>0.90909090909090917</v>
+        <f>I5/15*sample_size_weighting_factor</f>
+        <v>2</v>
       </c>
       <c r="L5" s="17">
-        <f>IF(D5-G5&lt;0,(D5-G5)*-1,D5-G5)</f>
-        <v>9.7391304347826085E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.53977272727272707</v>
       </c>
       <c r="M5" s="17">
-        <f>IF(D5-J5&lt;0,(D5-J5)*-1,D5-J5)</f>
-        <v>3.2608695652173919E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.27272727272727293</v>
       </c>
       <c r="N5" s="17">
-        <f>IF(G5-J5&lt;0,(G5-J5)*-1,G5-J5)</f>
-        <v>0.13</v>
+        <f t="shared" si="2"/>
+        <v>0.8125</v>
       </c>
       <c r="O5" s="18">
-        <f>C5+F5+I5</f>
-        <v>10</v>
+        <f>E5+H5+K5</f>
+        <v>7.0852272727272734</v>
       </c>
       <c r="P5" s="17">
         <f>L5+M5+N5</f>
-        <v>0.26</v>
+        <v>1.625</v>
       </c>
       <c r="Q5" s="17">
         <f>P5*O5^2</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>81.575723947572328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>2</v>
       </c>
@@ -2219,7 +2265,7 @@
         <v>0.13043478260869565</v>
       </c>
       <c r="E6" s="17">
-        <f>C6/33*sample_size_weighting_factor</f>
+        <f t="shared" ref="E6:E7" si="3">C6/33*sample_size_weighting_factor</f>
         <v>1.3636363636363638</v>
       </c>
       <c r="F6" s="17">
@@ -2239,7 +2285,7 @@
         <v>0.125</v>
       </c>
       <c r="K6" s="17">
-        <f>I6/33*sample_size_weighting_factor</f>
+        <f t="shared" ref="K6:K7" si="4">I6/33*sample_size_weighting_factor</f>
         <v>0.45454545454545459</v>
       </c>
       <c r="L6" s="17">
@@ -2251,7 +2297,7 @@
         <v>5.4347826086956486E-3</v>
       </c>
       <c r="N6" s="17">
-        <f>IF(G6-J6&lt;0,(G6-J6)*-1,G6-J6)</f>
+        <f t="shared" ref="N6:N7" si="5">IF(G6-J6&lt;0,(G6-J6)*-1,G6-J6)</f>
         <v>0.125</v>
       </c>
       <c r="O6" s="18">
@@ -2259,15 +2305,15 @@
         <v>4</v>
       </c>
       <c r="P6" s="17">
-        <f>L6+M6+N6</f>
+        <f t="shared" ref="P6:P7" si="6">L6+M6+N6</f>
         <v>0.2608695652173913</v>
       </c>
       <c r="Q6" s="17">
-        <f>P6*O6^2</f>
+        <f t="shared" ref="Q6:Q7" si="7">P6*O6^2</f>
         <v>4.1739130434782608</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -2281,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="17">
-        <f>C7/33*sample_size_weighting_factor</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F7" s="17">
@@ -2301,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="17">
-        <f>I7/33*sample_size_weighting_factor</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L7" s="17">
@@ -2313,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="17">
-        <f>IF(G7-J7&lt;0,(G7-J7)*-1,G7-J7)</f>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="O7" s="18">
@@ -2321,15 +2367,15 @@
         <v>1</v>
       </c>
       <c r="P7" s="17">
-        <f>L7+M7+N7</f>
+        <f t="shared" si="6"/>
         <v>0.08</v>
       </c>
       <c r="Q7" s="17">
-        <f>P7*O7^2</f>
+        <f t="shared" si="7"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -2347,8 +2393,8 @@
         <filter val="16"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q7">
-      <sortCondition descending="1" ref="Q1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q5">
+      <sortCondition descending="1" ref="Q1:Q7"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="L2:N7">
@@ -2373,13 +2419,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="4" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="4" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
@@ -2399,7 +2445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
@@ -2417,7 +2463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
@@ -2431,7 +2477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
@@ -2439,7 +2485,7 @@
       <c r="C4" s="15"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>32</v>
       </c>
@@ -2447,7 +2493,7 @@
       <c r="C5" s="15"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
@@ -2455,7 +2501,7 @@
       <c r="C6" s="15"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -2463,25 +2509,25 @@
       <c r="C7" s="15"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -2495,19 +2541,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E14493-CEBC-45B0-864E-BAA8579E82DC}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>59</v>
       </c>
@@ -2515,263 +2561,193 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="19" t="str">
-        <f>A3&amp;" (f="&amp;F3&amp;")"</f>
-        <v>Decision making (f=16)</v>
-      </c>
-      <c r="C3" s="25">
-        <f>VLOOKUP(A3,All!B:Q,3,FALSE)</f>
-        <v>0.17391304347826086</v>
-      </c>
-      <c r="D3" s="25">
-        <f>VLOOKUP(A3,All!B:Q,6,FALSE)</f>
-        <v>0.4</v>
-      </c>
-      <c r="E3" s="25">
-        <f>VLOOKUP(A3,All!B:Q,9,FALSE)</f>
-        <v>0.25</v>
-      </c>
-      <c r="F3" s="19">
+        <f>A3&amp;" w(f)="&amp;ROUND(F3,1)&amp;""</f>
+        <v>Decision making w(f)=13,2</v>
+      </c>
+      <c r="C3" s="24">
+        <f>VLOOKUP(A3,All!B:Q,4,FALSE)</f>
+        <v>1.8181818181818183</v>
+      </c>
+      <c r="D3" s="24">
+        <f>VLOOKUP(A3,All!B:Q,7,FALSE)</f>
+        <v>9.375</v>
+      </c>
+      <c r="E3" s="24">
+        <f>VLOOKUP(A3,All!B:Q,10,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="F3" s="18">
         <f>VLOOKUP(A3,All!B:Q,14,FALSE)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13.193181818181818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="19" t="str">
+        <f>A4&amp;" w(f)="&amp;ROUND(F4,1)&amp;""</f>
+        <v>Speed control w(f)=10,4</v>
+      </c>
+      <c r="C4" s="24">
+        <f>VLOOKUP(A4,All!B:Q,4,FALSE)</f>
+        <v>1.8181818181818183</v>
+      </c>
+      <c r="D4" s="24">
+        <f>VLOOKUP(A4,All!B:Q,7,FALSE)</f>
+        <v>6.5625</v>
+      </c>
+      <c r="E4" s="24">
+        <f>VLOOKUP(A4,All!B:Q,10,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="18">
+        <f>VLOOKUP(A4,All!B:Q,14,FALSE)</f>
+        <v>10.380681818181818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="19" t="str">
-        <f t="shared" ref="B4:B12" si="0">A4&amp;" (f="&amp;F4&amp;")"</f>
-        <v>Lane position (f=12)</v>
-      </c>
-      <c r="C4" s="25">
-        <f>VLOOKUP(A4,All!B:Q,3,FALSE)</f>
-        <v>0.30434782608695654</v>
-      </c>
-      <c r="D4" s="25">
-        <f>VLOOKUP(A4,All!B:Q,6,FALSE)</f>
-        <v>0.16</v>
-      </c>
-      <c r="E4" s="25">
-        <f>VLOOKUP(A4,All!B:Q,9,FALSE)</f>
-        <v>0.125</v>
-      </c>
-      <c r="F4" s="19">
-        <f>VLOOKUP(A4,All!B:Q,14,FALSE)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>33</v>
-      </c>
       <c r="B5" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Speed control (f=13)</v>
-      </c>
-      <c r="C5" s="25">
-        <f>VLOOKUP(A5,All!B:Q,3,FALSE)</f>
-        <v>0.17391304347826086</v>
-      </c>
-      <c r="D5" s="25">
-        <f>VLOOKUP(A5,All!B:Q,6,FALSE)</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E5" s="25">
-        <f>VLOOKUP(A5,All!B:Q,9,FALSE)</f>
-        <v>0.25</v>
-      </c>
-      <c r="F5" s="19">
+        <f t="shared" ref="B5:B8" si="0">A5&amp;" w(f)="&amp;ROUND(F5,1)&amp;""</f>
+        <v>Lane position w(f)=7,9</v>
+      </c>
+      <c r="C5" s="24">
+        <f>VLOOKUP(A5,All!B:Q,4,FALSE)</f>
+        <v>3.1818181818181821</v>
+      </c>
+      <c r="D5" s="24">
+        <f>VLOOKUP(A5,All!B:Q,7,FALSE)</f>
+        <v>3.75</v>
+      </c>
+      <c r="E5" s="24">
+        <f>VLOOKUP(A5,All!B:Q,10,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="18">
         <f>VLOOKUP(A5,All!B:Q,14,FALSE)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7.9318181818181817</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>Response time (f=10)</v>
-      </c>
-      <c r="C6" s="25">
-        <f>VLOOKUP(A6,All!B:Q,3,FALSE)</f>
-        <v>0.21739130434782608</v>
-      </c>
-      <c r="D6" s="25">
-        <f>VLOOKUP(A6,All!B:Q,6,FALSE)</f>
-        <v>0.12</v>
-      </c>
-      <c r="E6" s="25">
-        <f>VLOOKUP(A6,All!B:Q,9,FALSE)</f>
-        <v>0.25</v>
-      </c>
-      <c r="F6" s="19">
+        <v>Response time w(f)=7,1</v>
+      </c>
+      <c r="C6" s="24">
+        <f>VLOOKUP(A6,All!B:Q,4,FALSE)</f>
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="D6" s="24">
+        <f>VLOOKUP(A6,All!B:Q,7,FALSE)</f>
+        <v>2.8125</v>
+      </c>
+      <c r="E6" s="24">
+        <f>VLOOKUP(A6,All!B:Q,10,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="F6" s="18">
         <f>VLOOKUP(A6,All!B:Q,14,FALSE)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7.0852272727272734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>Distance (f=4)</v>
-      </c>
-      <c r="C7" s="25">
-        <f>VLOOKUP(A7,All!B:Q,3,FALSE)</f>
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="D7" s="25">
-        <f>VLOOKUP(A7,All!B:Q,6,FALSE)</f>
+        <v>Distance w(f)=4</v>
+      </c>
+      <c r="C7" s="24">
+        <f>VLOOKUP(A7,All!B:Q,4,FALSE)</f>
+        <v>1.3636363636363638</v>
+      </c>
+      <c r="D7" s="24">
+        <f>VLOOKUP(A7,All!B:Q,7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="25">
-        <f>VLOOKUP(A7,All!B:Q,9,FALSE)</f>
-        <v>0.125</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="E7" s="24">
+        <f>VLOOKUP(A7,All!B:Q,10,FALSE)</f>
+        <v>0.45454545454545459</v>
+      </c>
+      <c r="F7" s="18">
         <f>VLOOKUP(A7,All!B:Q,14,FALSE)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>Near collision (f=1)</v>
-      </c>
-      <c r="C8" s="25">
-        <f>VLOOKUP(A8,All!B:Q,3,FALSE)</f>
+        <v>Near collision w(f)=1</v>
+      </c>
+      <c r="C8" s="24">
+        <f>VLOOKUP(A8,All!B:Q,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="25">
-        <f>VLOOKUP(A8,All!B:Q,6,FALSE)</f>
-        <v>0.04</v>
-      </c>
-      <c r="E8" s="25">
-        <f>VLOOKUP(A8,All!B:Q,9,FALSE)</f>
+      <c r="D8" s="24">
+        <f>VLOOKUP(A8,All!B:Q,7,FALSE)</f>
+        <v>0.45454545454545459</v>
+      </c>
+      <c r="E8" s="24">
+        <f>VLOOKUP(A8,All!B:Q,10,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <f>VLOOKUP(A8,All!B:Q,14,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2783,30 +2759,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E1D036-8BED-49D0-B611-8DA1DF11D4FE}">
   <dimension ref="A1:R265"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" customWidth="1"/>
-    <col min="11" max="13" width="18.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.44140625" customWidth="1"/>
+    <col min="11" max="13" width="18.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
       <c r="J1" t="s">
         <v>5</v>
       </c>
@@ -2820,7 +2796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
@@ -2849,7 +2825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2864,7 +2840,7 @@
       <c r="D3" s="1">
         <v>4</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <v>33</v>
       </c>
       <c r="G3" s="4">
@@ -2884,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2899,7 +2875,7 @@
       <c r="D4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>16</v>
       </c>
       <c r="G4" s="4">
@@ -2919,7 +2895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E5" s="5"/>
       <c r="J5" t="s">
         <v>32</v>
@@ -2937,7 +2913,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E6" s="5"/>
       <c r="F6" t="s">
         <v>15</v>
@@ -2959,7 +2935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E7" s="5"/>
       <c r="F7" t="s">
         <v>16</v>
@@ -2981,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E8" s="5"/>
       <c r="F8" t="s">
         <v>17</v>
@@ -2991,19 +2967,19 @@
         <v>2.3900873419262822E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
@@ -3013,12 +2989,12 @@
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>56</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3041,7 +3017,7 @@
         <v>4.3290043290043212E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3064,11 +3040,11 @@
         <v>4.3290043290043212E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E15" s="5"/>
       <c r="F15" t="s">
         <v>15</v>
@@ -3078,7 +3054,7 @@
         <v>8.6580086580086424E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E16" s="5"/>
       <c r="F16" t="s">
         <v>16</v>
@@ -3100,7 +3076,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E17" s="5"/>
       <c r="F17" t="s">
         <v>17</v>
@@ -3120,7 +3096,7 @@
         <v>2.8765492009884236E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E18" s="5"/>
       <c r="J18" t="s">
         <v>30</v>
@@ -3129,14 +3105,14 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="B19" s="6"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
       <c r="J19" t="s">
         <v>31</v>
       </c>
@@ -3144,7 +3120,7 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
@@ -3154,7 +3130,7 @@
       <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="20" t="s">
         <v>56</v>
       </c>
       <c r="F20" s="1"/>
@@ -3165,7 +3141,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -3194,7 +3170,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -3220,10 +3196,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E24" s="5"/>
       <c r="F24" t="s">
         <v>15</v>
@@ -3233,7 +3209,7 @@
         <v>4.7815934065934069</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E25" s="5"/>
       <c r="F25" t="s">
         <v>16</v>
@@ -3243,7 +3219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E26" s="5"/>
       <c r="F26" t="s">
         <v>17</v>
@@ -3253,19 +3229,19 @@
         <v>2.8765492009884236E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
@@ -3275,12 +3251,12 @@
       <c r="D29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="20" t="s">
         <v>56</v>
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -3295,7 +3271,7 @@
       <c r="D30" s="1">
         <v>3</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="20">
         <v>33</v>
       </c>
       <c r="G30" s="4">
@@ -3303,7 +3279,7 @@
         <v>0.68181818181818188</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -3318,7 +3294,7 @@
       <c r="D31" s="1">
         <v>0</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="20">
         <v>16</v>
       </c>
       <c r="G31" s="4">
@@ -3326,10 +3302,10 @@
         <v>0.68181818181818188</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E33" s="5"/>
       <c r="F33" t="s">
         <v>15</v>
@@ -3339,7 +3315,7 @@
         <v>1.3636363636363638</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E34" s="5"/>
       <c r="F34" t="s">
         <v>16</v>
@@ -3349,7 +3325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E35" s="5"/>
       <c r="F35" t="s">
         <v>17</v>
@@ -3359,19 +3335,19 @@
         <v>0.24290826090432383</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>14</v>
       </c>
@@ -3381,12 +3357,12 @@
       <c r="D38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="20" t="s">
         <v>56</v>
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -3409,7 +3385,7 @@
         <v>2.7972027972027989E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -3432,11 +3408,11 @@
         <v>2.7972027972027989E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E41" s="5"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E42" s="5"/>
       <c r="F42" t="s">
         <v>15</v>
@@ -3446,7 +3422,7 @@
         <v>5.5944055944055979E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E43" s="5"/>
       <c r="F43" t="s">
         <v>16</v>
@@ -3456,7 +3432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E44" s="5"/>
       <c r="F44" t="s">
         <v>17</v>
@@ -3466,19 +3442,19 @@
         <v>0.81302534261757742</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="6"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>14</v>
       </c>
@@ -3488,12 +3464,12 @@
       <c r="D47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="20" t="s">
         <v>56</v>
       </c>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -3516,7 +3492,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -3539,10 +3515,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E51" s="5"/>
       <c r="F51" t="s">
         <v>15</v>
@@ -3552,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E52" s="5"/>
       <c r="F52" t="s">
         <v>16</v>
@@ -3562,7 +3538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E53" s="5"/>
       <c r="F53" t="s">
         <v>17</v>
@@ -3572,19 +3548,19 @@
         <v>0.31731050786291398</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="6"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>14</v>
       </c>
@@ -3594,12 +3570,12 @@
       <c r="D56" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="21" t="s">
+      <c r="E56" s="20" t="s">
         <v>56</v>
       </c>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -3614,7 +3590,7 @@
       <c r="D57" s="1">
         <v>7</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="20">
         <v>33</v>
       </c>
       <c r="G57">
@@ -3622,7 +3598,7 @@
         <v>2.3286140089418719E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -3637,7 +3613,7 @@
       <c r="D58" s="1">
         <v>4</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="20">
         <v>16</v>
       </c>
       <c r="G58">
@@ -3645,10 +3621,10 @@
         <v>2.3286140089418792E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E60" s="5"/>
       <c r="F60" t="s">
         <v>15</v>
@@ -3658,7 +3634,7 @@
         <v>4.6572280178837508E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E61" s="5"/>
       <c r="F61" t="s">
         <v>16</v>
@@ -3668,7 +3644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E62" s="5"/>
       <c r="F62" t="s">
         <v>17</v>
@@ -3678,19 +3654,19 @@
         <v>0.82913887991389801</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="6"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
         <v>14</v>
       </c>
@@ -3700,12 +3676,12 @@
       <c r="D65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="21" t="s">
+      <c r="E65" s="20" t="s">
         <v>56</v>
       </c>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -3728,7 +3704,7 @@
         <v>0.56916996047430868</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -3751,11 +3727,11 @@
         <v>0.56916996047430823</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E68" s="5"/>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E69" s="5"/>
       <c r="F69" t="s">
         <v>15</v>
@@ -3765,7 +3741,7 @@
         <v>1.1383399209486169</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E70" s="5"/>
       <c r="F70" t="s">
         <v>16</v>
@@ -3775,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E71" s="5"/>
       <c r="F71" t="s">
         <v>17</v>
@@ -3785,19 +3761,19 @@
         <v>0.28600338402070546</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="6"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
         <v>14</v>
       </c>
@@ -3807,12 +3783,12 @@
       <c r="D74" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E74" s="21" t="s">
+      <c r="E74" s="20" t="s">
         <v>56</v>
       </c>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -3835,7 +3811,7 @@
         <v>0.79605263157894735</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -3858,10 +3834,10 @@
         <v>0.79605263157894735</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E78" s="5"/>
       <c r="F78" t="s">
         <v>15</v>
@@ -3871,7 +3847,7 @@
         <v>1.5921052631578947</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E79" s="5"/>
       <c r="F79" t="s">
         <v>16</v>
@@ -3881,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E80" s="5"/>
       <c r="F80" t="s">
         <v>17</v>
@@ -3891,19 +3867,19 @@
         <v>0.20702560815693516</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="6"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>14</v>
       </c>
@@ -3913,12 +3889,12 @@
       <c r="D83" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="21" t="s">
+      <c r="E83" s="20" t="s">
         <v>56</v>
       </c>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -3933,7 +3909,7 @@
       <c r="D84" s="1">
         <v>5</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E84" s="20">
         <v>33</v>
       </c>
       <c r="G84">
@@ -3941,7 +3917,7 @@
         <v>2.8647155916709011E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -3956,7 +3932,7 @@
       <c r="D85" s="1">
         <v>3</v>
       </c>
-      <c r="E85" s="21">
+      <c r="E85" s="20">
         <v>16</v>
       </c>
       <c r="G85">
@@ -3964,10 +3940,10 @@
         <v>2.8647155916708918E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E86" s="5"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E87" s="5"/>
       <c r="F87" t="s">
         <v>15</v>
@@ -3977,7 +3953,7 @@
         <v>5.7294311833417932E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E88" s="5"/>
       <c r="F88" t="s">
         <v>16</v>
@@ -3987,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E89" s="5"/>
       <c r="F89" t="s">
         <v>17</v>
@@ -3997,19 +3973,19 @@
         <v>0.81082465873623843</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E90" s="5"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="20"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="6"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
         <v>14</v>
       </c>
@@ -4019,12 +3995,12 @@
       <c r="D92" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="21" t="s">
+      <c r="E92" s="20" t="s">
         <v>56</v>
       </c>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -4047,7 +4023,7 @@
         <v>8.7040618955512399E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -4070,11 +4046,11 @@
         <v>8.7040618955512971E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E95" s="5"/>
       <c r="G95" s="5"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E96" s="5"/>
       <c r="F96" t="s">
         <v>15</v>
@@ -4084,7 +4060,7 @@
         <v>1.7408123791102535E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E97" s="5"/>
       <c r="F97" t="s">
         <v>16</v>
@@ -4094,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E98" s="5"/>
       <c r="F98" t="s">
         <v>17</v>
@@ -4104,19 +4080,19 @@
         <v>0.8950318690772987</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E99" s="5"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="20" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B100" s="20"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="6"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
         <v>14</v>
       </c>
@@ -4126,12 +4102,12 @@
       <c r="D101" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="21" t="s">
+      <c r="E101" s="20" t="s">
         <v>56</v>
       </c>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -4154,7 +4130,7 @@
         <v>6.8587662337662336E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -4177,10 +4153,10 @@
         <v>6.8587662337662336E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E104" s="5"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E105" s="5"/>
       <c r="F105" t="s">
         <v>15</v>
@@ -4190,7 +4166,7 @@
         <v>0.13717532467532467</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E106" s="5"/>
       <c r="F106" t="s">
         <v>16</v>
@@ -4200,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E107" s="5"/>
       <c r="F107" t="s">
         <v>17</v>
@@ -4210,19 +4186,19 @@
         <v>0.71110542777642716</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E108" s="5"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="20" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B109" s="20"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="20"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="6"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B110" s="1" t="s">
         <v>14</v>
       </c>
@@ -4232,12 +4208,12 @@
       <c r="D110" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="21" t="s">
+      <c r="E110" s="20" t="s">
         <v>56</v>
       </c>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -4252,7 +4228,7 @@
       <c r="D111" s="1">
         <v>4</v>
       </c>
-      <c r="E111" s="21">
+      <c r="E111" s="20">
         <v>33</v>
       </c>
       <c r="G111">
@@ -4260,7 +4236,7 @@
         <v>1.3428832819722649</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -4275,7 +4251,7 @@
       <c r="D112" s="1">
         <v>7</v>
       </c>
-      <c r="E112" s="21">
+      <c r="E112" s="20">
         <v>16</v>
       </c>
       <c r="G112">
@@ -4283,10 +4259,10 @@
         <v>1.3428832819722649</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E113" s="5"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E114" s="5"/>
       <c r="F114" t="s">
         <v>15</v>
@@ -4296,7 +4272,7 @@
         <v>2.6857665639445298</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E115" s="5"/>
       <c r="F115" t="s">
         <v>16</v>
@@ -4306,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E116" s="5"/>
       <c r="F116" t="s">
         <v>17</v>
@@ -4316,19 +4292,19 @@
         <v>0.10124849175012171</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="20" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B118" s="20"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="20"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="6"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B119" s="1" t="s">
         <v>14</v>
       </c>
@@ -4338,12 +4314,12 @@
       <c r="D119" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E119" s="21" t="s">
+      <c r="E119" s="20" t="s">
         <v>56</v>
       </c>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -4366,7 +4342,7 @@
         <v>4.3290043290043212E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -4389,11 +4365,11 @@
         <v>4.3290043290043212E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E122" s="5"/>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E123" s="5"/>
       <c r="F123" t="s">
         <v>15</v>
@@ -4403,7 +4379,7 @@
         <v>8.6580086580086424E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E124" s="5"/>
       <c r="F124" t="s">
         <v>16</v>
@@ -4413,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E125" s="5"/>
       <c r="F125" t="s">
         <v>17</v>
@@ -4423,19 +4399,19 @@
         <v>0.92586509362386615</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E126" s="5"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="20" t="s">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B127" s="20"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="20"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="6"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B128" s="1" t="s">
         <v>14</v>
       </c>
@@ -4445,12 +4421,12 @@
       <c r="D128" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E128" s="21" t="s">
+      <c r="E128" s="20" t="s">
         <v>56</v>
       </c>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -4473,7 +4449,7 @@
         <v>1.2155565693430657</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>18</v>
       </c>
@@ -4496,10 +4472,10 @@
         <v>1.2155565693430657</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E131" s="5"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E132" s="5"/>
       <c r="F132" t="s">
         <v>15</v>
@@ -4509,7 +4485,7 @@
         <v>2.4311131386861313</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E133" s="5"/>
       <c r="F133" t="s">
         <v>16</v>
@@ -4519,7 +4495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E134" s="5"/>
       <c r="F134" t="s">
         <v>17</v>
@@ -4529,19 +4505,19 @@
         <v>0.11894840602017642</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E135" s="5"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="20" t="s">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B136" s="20"/>
-      <c r="E136" s="22"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="20"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="6"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B137" s="1" t="s">
         <v>14</v>
       </c>
@@ -4551,12 +4527,12 @@
       <c r="D137" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E137" s="21" t="s">
+      <c r="E137" s="20" t="s">
         <v>56</v>
       </c>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -4571,7 +4547,7 @@
       <c r="D138" s="1">
         <v>0</v>
       </c>
-      <c r="E138" s="21">
+      <c r="E138" s="20">
         <v>33</v>
       </c>
       <c r="G138">
@@ -4579,7 +4555,7 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>12</v>
       </c>
@@ -4594,7 +4570,7 @@
       <c r="D139" s="1">
         <v>1</v>
       </c>
-      <c r="E139" s="21">
+      <c r="E139" s="20">
         <v>16</v>
       </c>
       <c r="G139">
@@ -4602,10 +4578,10 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E140" s="5"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E141" s="5"/>
       <c r="F141" t="s">
         <v>15</v>
@@ -4615,7 +4591,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E142" s="5"/>
       <c r="F142" t="s">
         <v>16</v>
@@ -4625,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E143" s="5"/>
       <c r="F143" t="s">
         <v>17</v>
@@ -4635,19 +4611,19 @@
         <v>0.33292160806556592</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E144" s="5"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="20" t="s">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B145" s="20"/>
-      <c r="E145" s="22"/>
-      <c r="F145" s="20"/>
-      <c r="G145" s="20"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B145" s="6"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B146" s="1" t="s">
         <v>14</v>
       </c>
@@ -4657,12 +4633,12 @@
       <c r="D146" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E146" s="21" t="s">
+      <c r="E146" s="20" t="s">
         <v>56</v>
       </c>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -4685,7 +4661,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -4708,11 +4684,11 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E149" s="5"/>
       <c r="G149" s="5"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E150" s="5"/>
       <c r="F150" t="s">
         <v>15</v>
@@ -4722,7 +4698,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E151" s="5"/>
       <c r="F151" t="s">
         <v>16</v>
@@ -4732,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E152" s="5"/>
       <c r="F152" t="s">
         <v>17</v>
@@ -4742,19 +4718,19 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E153" s="5"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="20" t="s">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B154" s="20"/>
-      <c r="E154" s="22"/>
-      <c r="F154" s="20"/>
-      <c r="G154" s="20"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B154" s="6"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B155" s="1" t="s">
         <v>14</v>
       </c>
@@ -4764,12 +4740,12 @@
       <c r="D155" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E155" s="21" t="s">
+      <c r="E155" s="20" t="s">
         <v>56</v>
       </c>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>12</v>
       </c>
@@ -4792,7 +4768,7 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>18</v>
       </c>
@@ -4815,10 +4791,10 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E158" s="5"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E159" s="5"/>
       <c r="F159" t="s">
         <v>15</v>
@@ -4828,7 +4804,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E160" s="5"/>
       <c r="F160" t="s">
         <v>16</v>
@@ -4838,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E161" s="5"/>
       <c r="F161" t="s">
         <v>17</v>
@@ -4848,326 +4824,326 @@
         <v>0.33292160806556592</v>
       </c>
     </row>
-    <row r="162" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E162" s="5"/>
     </row>
-    <row r="163" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E163" s="22"/>
-    </row>
-    <row r="164" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E164" s="21"/>
-    </row>
-    <row r="165" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E165" s="21"/>
-    </row>
-    <row r="166" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E166" s="21"/>
-    </row>
-    <row r="167" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E163" s="21"/>
+    </row>
+    <row r="164" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E164" s="20"/>
+    </row>
+    <row r="165" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E165" s="20"/>
+    </row>
+    <row r="166" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E166" s="20"/>
+    </row>
+    <row r="167" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E167" s="5"/>
     </row>
-    <row r="168" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E168" s="5"/>
     </row>
-    <row r="169" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E169" s="5"/>
     </row>
-    <row r="170" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E170" s="5"/>
     </row>
-    <row r="171" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E171" s="5"/>
     </row>
-    <row r="172" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E172" s="22"/>
-    </row>
-    <row r="173" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E173" s="21"/>
-    </row>
-    <row r="174" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E172" s="21"/>
+    </row>
+    <row r="173" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E173" s="20"/>
+    </row>
+    <row r="174" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E174" s="5"/>
     </row>
-    <row r="175" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E175" s="5"/>
     </row>
-    <row r="176" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E176" s="5"/>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E177" s="5"/>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E178" s="5"/>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E179" s="5"/>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E180" s="5"/>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E181" s="22"/>
-    </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E182" s="21"/>
-    </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E181" s="21"/>
+    </row>
+    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E182" s="20"/>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E183" s="5"/>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E184" s="5"/>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E185" s="5"/>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E186" s="5"/>
     </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E187" s="5"/>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E188" s="5"/>
     </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E189" s="5"/>
     </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E190" s="22"/>
-    </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E191" s="21"/>
-    </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E192" s="21"/>
-    </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E193" s="21"/>
-    </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E190" s="21"/>
+    </row>
+    <row r="191" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E191" s="20"/>
+    </row>
+    <row r="192" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E192" s="20"/>
+    </row>
+    <row r="193" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E193" s="20"/>
+    </row>
+    <row r="194" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E194" s="5"/>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E195" s="5"/>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E196" s="5"/>
     </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E197" s="5"/>
     </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E198" s="5"/>
     </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E199" s="22"/>
-    </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E200" s="21"/>
-    </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E199" s="21"/>
+    </row>
+    <row r="200" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E200" s="20"/>
+    </row>
+    <row r="201" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E201" s="5"/>
     </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E202" s="5"/>
     </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E203" s="5"/>
     </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E204" s="5"/>
     </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E205" s="5"/>
     </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E206" s="5"/>
     </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E207" s="5"/>
     </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E208" s="22"/>
-    </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E209" s="21"/>
-    </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E208" s="21"/>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E209" s="20"/>
+    </row>
+    <row r="210" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E210" s="5"/>
     </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E211" s="5"/>
     </row>
-    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E212" s="5"/>
     </row>
-    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E213" s="5"/>
     </row>
-    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E214" s="5"/>
     </row>
-    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E215" s="5"/>
     </row>
-    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E216" s="5"/>
     </row>
-    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E217" s="22"/>
-    </row>
-    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E218" s="21"/>
-    </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E219" s="21"/>
-    </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E220" s="21"/>
-    </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E217" s="21"/>
+    </row>
+    <row r="218" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E218" s="20"/>
+    </row>
+    <row r="219" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E219" s="20"/>
+    </row>
+    <row r="220" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E220" s="20"/>
+    </row>
+    <row r="221" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E221" s="5"/>
     </row>
-    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E222" s="5"/>
     </row>
-    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E223" s="5"/>
     </row>
-    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E224" s="5"/>
     </row>
-    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E225" s="5"/>
     </row>
-    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E226" s="22"/>
-    </row>
-    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E227" s="21"/>
-    </row>
-    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E226" s="21"/>
+    </row>
+    <row r="227" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E227" s="20"/>
+    </row>
+    <row r="228" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E228" s="5"/>
     </row>
-    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E229" s="5"/>
     </row>
-    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E230" s="5"/>
     </row>
-    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E231" s="5"/>
     </row>
-    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E232" s="5"/>
     </row>
-    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E233" s="5"/>
     </row>
-    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E234" s="5"/>
     </row>
-    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E235" s="22"/>
-    </row>
-    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E236" s="21"/>
-    </row>
-    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E235" s="21"/>
+    </row>
+    <row r="236" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E236" s="20"/>
+    </row>
+    <row r="237" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E237" s="5"/>
     </row>
-    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E238" s="5"/>
     </row>
-    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E239" s="5"/>
     </row>
-    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E240" s="5"/>
     </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E241" s="5"/>
     </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E242" s="5"/>
     </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E243" s="5"/>
     </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E244" s="22"/>
-    </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E245" s="21"/>
-    </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E246" s="21"/>
-    </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E247" s="21"/>
-    </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E244" s="21"/>
+    </row>
+    <row r="245" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E245" s="20"/>
+    </row>
+    <row r="246" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E246" s="20"/>
+    </row>
+    <row r="247" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E247" s="20"/>
+    </row>
+    <row r="248" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E248" s="5"/>
     </row>
-    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E249" s="5"/>
     </row>
-    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E250" s="5"/>
     </row>
-    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E251" s="5"/>
     </row>
-    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E252" s="5"/>
     </row>
-    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E253" s="22"/>
-    </row>
-    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E254" s="21"/>
-    </row>
-    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E253" s="21"/>
+    </row>
+    <row r="254" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E254" s="20"/>
+    </row>
+    <row r="255" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E255" s="5"/>
     </row>
-    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E256" s="5"/>
     </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E257" s="5"/>
     </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E258" s="5"/>
     </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E259" s="5"/>
     </row>
-    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E260" s="5"/>
     </row>
-    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E261" s="5"/>
     </row>
-    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E262" s="22"/>
-    </row>
-    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E263" s="21"/>
-    </row>
-    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E262" s="21"/>
+    </row>
+    <row r="263" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E263" s="20"/>
+    </row>
+    <row r="264" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E264" s="5"/>
     </row>
-    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E265" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B12:B13 B21:B22 B30:B31 B39:B40 B48:B49 B57:B58 B66:B67 B75:B76 B84:B85 B93:B94 B102:B103 B111:B112 B120:B121 B129:B130 B138:B139 B147:B148 B156:B157 B3:B4">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="B3:B4 B12:B13 B21:B22 B30:B31 B39:B40 B48:B49 B57:B58 B66:B67 B75:B76 B84:B85 B93:B94 B102:B103 B111:B112 B120:B121 B129:B130 B138:B139 B147:B148 B156:B157">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G17 G26 G35 G44 G53 G62 G71 G80 G89 G98 G107 G116 G125 G134 G143 G152 G161">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5184,13 +5160,13 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="1"/>
+    <col min="2" max="5" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5207,7 +5183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -5224,7 +5200,7 @@
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -5241,7 +5217,7 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -5258,7 +5234,7 @@
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -5275,7 +5251,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -5292,7 +5268,7 @@
         <v>0.19444444444444445</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
   </sheetData>
@@ -5308,12 +5284,12 @@
       <selection activeCell="E6" sqref="B2:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5330,7 +5306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -5347,7 +5323,7 @@
         <v>0.18556701030927836</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5364,7 +5340,7 @@
         <v>0.30927835051546393</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -5381,7 +5357,7 @@
         <v>0.16494845360824742</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -5398,7 +5374,7 @@
         <v>0.21649484536082475</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -5415,7 +5391,7 @@
         <v>0.12371134020618557</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5434,9 +5410,9 @@
       <selection activeCell="E6" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5453,7 +5429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -5470,7 +5446,7 @@
         <v>0.20224719101123595</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -5487,7 +5463,7 @@
         <v>0.1348314606741573</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -5504,7 +5480,7 @@
         <v>0.3707865168539326</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5521,7 +5497,7 @@
         <v>0.2696629213483146</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -5538,7 +5514,7 @@
         <v>2.247191011235955E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -5553,16 +5529,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CCFF1E-6D01-4C0C-9797-E6EFAEE0EB0D}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -5578,8 +5552,8 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="63184760-ab03-4f31-8d05-e57fd1de7cd7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4a4afeb0-7e72-4d51-8cf1-662855e0da1b">
+    <TaxCatchAll xmlns="d6a03bd9-b31b-493a-b31e-bb4432e88c75" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0e881998-9419-4d13-b84d-721ac971c709">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
@@ -5596,10 +5570,10 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007E3BDA08E1E5A249978B11231DCF019A" ma:contentTypeVersion="11" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a7ca215021bbdd190a5af84d80b652fc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4a4afeb0-7e72-4d51-8cf1-662855e0da1b" xmlns:ns3="63184760-ab03-4f31-8d05-e57fd1de7cd7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f6025b888d8bdcce249ab03fa1f72" ns2:_="" ns3:_="">
-    <xsd:import namespace="4a4afeb0-7e72-4d51-8cf1-662855e0da1b"/>
-    <xsd:import namespace="63184760-ab03-4f31-8d05-e57fd1de7cd7"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004C9F4F6ABB567045B93F1D0C638A57F9" ma:contentTypeVersion="14" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="618a17aee6fe21829d83342cfb0aeda2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e881998-9419-4d13-b84d-721ac971c709" xmlns:ns3="d6a03bd9-b31b-493a-b31e-bb4432e88c75" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f381c43000bb8a88d8a6b5bfc4c73959" ns2:_="" ns3:_="">
+    <xsd:import namespace="0e881998-9419-4d13-b84d-721ac971c709"/>
+    <xsd:import namespace="d6a03bd9-b31b-493a-b31e-bb4432e88c75"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -5612,10 +5586,13 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5623,7 +5600,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4a4afeb0-7e72-4d51-8cf1-662855e0da1b" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0e881998-9419-4d13-b84d-721ac971c709" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -5658,28 +5635,45 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5eaa6d45-cff0-4e56-a5c8-0425e41e0f9b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5eaa6d45-cff0-4e56-a5c8-0425e41e0f9b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="63184760-ab03-4f31-8d05-e57fd1de7cd7" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d6a03bd9-b31b-493a-b31e-bb4432e88c75" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e1844fe6-43bb-44ca-860b-cdc46f75e607}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="63184760-ab03-4f31-8d05-e57fd1de7cd7">
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{8e1fa4af-7bd6-40f1-95bc-3c1c2580a70b}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d6a03bd9-b31b-493a-b31e-bb4432e88c75">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -5810,5 +5804,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEA807E2-36C2-427F-BB74-69F1A569DECD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BFD764B-51CF-4746-937C-86579201248E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0e881998-9419-4d13-b84d-721ac971c709"/>
+    <ds:schemaRef ds:uri="d6a03bd9-b31b-493a-b31e-bb4432e88c75"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>